--- a/ex/KQHT 12-11-2018.xlsx
+++ b/ex/KQHT 12-11-2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699">
   <si>
     <t>KẾT QUẢ THI CẤP CHỨNG CHỈ
 ỨNG DỤNG CÔNG NGHỆ THÔNG TIN</t>
@@ -1785,13 +1785,19 @@
     <t>K009CB192</t>
   </si>
   <si>
+    <t>Đoàn Hữu Tình</t>
+  </si>
+  <si>
+    <t>K009CB193</t>
+  </si>
+  <si>
     <t>Trần Văn Tình</t>
   </si>
   <si>
     <t>04/12/2000</t>
   </si>
   <si>
-    <t>K009CB193</t>
+    <t>K009CB194</t>
   </si>
   <si>
     <t>Phạm Minh Toàn</t>
@@ -1800,7 +1806,7 @@
     <t>30/03/2000</t>
   </si>
   <si>
-    <t>K009CB194</t>
+    <t>K009CB195</t>
   </si>
   <si>
     <t>Lê Thuỳ Trang</t>
@@ -1809,7 +1815,7 @@
     <t>13/08/1996</t>
   </si>
   <si>
-    <t>K009CB195</t>
+    <t>K009CB196</t>
   </si>
   <si>
     <t>Nguyễn Thị Bảo Trâm</t>
@@ -1818,7 +1824,7 @@
     <t>24/03/1998</t>
   </si>
   <si>
-    <t>K009CB196</t>
+    <t>K009CB197</t>
   </si>
   <si>
     <t>Phạm Nguyễn Hoài Trân</t>
@@ -1827,13 +1833,13 @@
     <t>20/01/1998</t>
   </si>
   <si>
-    <t>K009CB197</t>
+    <t>K009CB198</t>
   </si>
   <si>
     <t>Phan Lê Thành Trí</t>
   </si>
   <si>
-    <t>K009CB198</t>
+    <t>K009CB199</t>
   </si>
   <si>
     <t>Lương Khải Triết</t>
@@ -1842,7 +1848,7 @@
     <t>05/11/1999</t>
   </si>
   <si>
-    <t>K009CB199</t>
+    <t>K009CB200</t>
   </si>
   <si>
     <t>Bùi Thị Thuý Trinh</t>
@@ -1851,7 +1857,7 @@
     <t>21/03/1998</t>
   </si>
   <si>
-    <t>K009CB200</t>
+    <t>K009CB201</t>
   </si>
   <si>
     <t>Phạm Hoài Trinh</t>
@@ -1860,7 +1866,7 @@
     <t>12/07/1998</t>
   </si>
   <si>
-    <t>K009CB201</t>
+    <t>K009CB202</t>
   </si>
   <si>
     <t>Đoàn Quốc Trọng</t>
@@ -1869,7 +1875,7 @@
     <t>01/03/1999</t>
   </si>
   <si>
-    <t>K009CB202</t>
+    <t>K009CB203</t>
   </si>
   <si>
     <t>Trần Đức Trọng</t>
@@ -1878,7 +1884,7 @@
     <t>20/08/1997</t>
   </si>
   <si>
-    <t>K009CB203</t>
+    <t>K009CB204</t>
   </si>
   <si>
     <t>Nguyễn Thị Thanh Trúc</t>
@@ -1887,7 +1893,7 @@
     <t>08/11/1997</t>
   </si>
   <si>
-    <t>K009CB204</t>
+    <t>K009CB205</t>
   </si>
   <si>
     <t>Đinh Hữu Trung</t>
@@ -1896,7 +1902,7 @@
     <t>18/05/1996</t>
   </si>
   <si>
-    <t>K009CB205</t>
+    <t>K009CB206</t>
   </si>
   <si>
     <t>Nguyễn Hoàng Vũ Trung</t>
@@ -1905,13 +1911,13 @@
     <t>15/09/1998</t>
   </si>
   <si>
-    <t>K009CB206</t>
+    <t>K009CB207</t>
   </si>
   <si>
     <t>Trần Quốc Trung</t>
   </si>
   <si>
-    <t>K009CB207</t>
+    <t>K009CB208</t>
   </si>
   <si>
     <t>Huỳnh Văn Nhật Trường</t>
@@ -1920,7 +1926,7 @@
     <t>01/01/1998</t>
   </si>
   <si>
-    <t>K009CB208</t>
+    <t>K009CB209</t>
   </si>
   <si>
     <t>Thái Thị Cẩm Tú</t>
@@ -1929,7 +1935,7 @@
     <t>01/04/1998</t>
   </si>
   <si>
-    <t>K009CB209</t>
+    <t>K009CB210</t>
   </si>
   <si>
     <t>Nguyễn Minh Tuấn</t>
@@ -1938,7 +1944,7 @@
     <t>24/10/1999</t>
   </si>
   <si>
-    <t>K009CB210</t>
+    <t>K009CB211</t>
   </si>
   <si>
     <t>Nguyễn Bạch Minh Tùng</t>
@@ -1947,7 +1953,7 @@
     <t>22/04/1999</t>
   </si>
   <si>
-    <t>K009CB211</t>
+    <t>K009CB212</t>
   </si>
   <si>
     <t>Lương Thị Ngọc Tuyền</t>
@@ -1956,13 +1962,13 @@
     <t>16/12/1999</t>
   </si>
   <si>
-    <t>K009CB212</t>
+    <t>K009CB213</t>
   </si>
   <si>
     <t>Nguyễn Thị Thanh Tuyền</t>
   </si>
   <si>
-    <t>K009CB213</t>
+    <t>K009CB214</t>
   </si>
   <si>
     <t>Nguyễn Lan Tường</t>
@@ -1971,7 +1977,7 @@
     <t>17/09/1999</t>
   </si>
   <si>
-    <t>K009CB214</t>
+    <t>K009CB215</t>
   </si>
   <si>
     <t>Phạm Phương Uyên</t>
@@ -1980,7 +1986,7 @@
     <t>04/01/1999</t>
   </si>
   <si>
-    <t>K009CB215</t>
+    <t>K009CB216</t>
   </si>
   <si>
     <t>Trần Thuý Vi</t>
@@ -1989,7 +1995,7 @@
     <t>26/04/1997</t>
   </si>
   <si>
-    <t>K009CB216</t>
+    <t>K009CB217</t>
   </si>
   <si>
     <t>Nguyễn Phú Vinh</t>
@@ -1998,19 +2004,19 @@
     <t>16/10/1998</t>
   </si>
   <si>
-    <t>K009CB217</t>
+    <t>K009CB218</t>
   </si>
   <si>
     <t>Nguyễn Trần Vinh</t>
   </si>
   <si>
-    <t>K009CB218</t>
+    <t>K009CB219</t>
   </si>
   <si>
     <t>Nguyễn Vĩ Vinh</t>
   </si>
   <si>
-    <t>K009CB219</t>
+    <t>K009CB220</t>
   </si>
   <si>
     <t>Hà Thanh Vũ</t>
@@ -2019,7 +2025,7 @@
     <t>05/06/1998</t>
   </si>
   <si>
-    <t>K009CB220</t>
+    <t>K009CB221</t>
   </si>
   <si>
     <t>Trương Thanh Vũ</t>
@@ -2028,7 +2034,7 @@
     <t>19/09/1996</t>
   </si>
   <si>
-    <t>K009CB221</t>
+    <t>K009CB222</t>
   </si>
   <si>
     <t>Nguyễn Quốc Vương</t>
@@ -2037,7 +2043,7 @@
     <t>09/01/1998</t>
   </si>
   <si>
-    <t>K009CB222</t>
+    <t>K009CB223</t>
   </si>
   <si>
     <t>Tổng Hải Vương</t>
@@ -2046,7 +2052,7 @@
     <t>05/04/1998</t>
   </si>
   <si>
-    <t>K009CB223</t>
+    <t>K009CB224</t>
   </si>
   <si>
     <t>Võ Minh Vương</t>
@@ -2055,7 +2061,7 @@
     <t>30/09/1998</t>
   </si>
   <si>
-    <t>K009CB224</t>
+    <t>K009CB225</t>
   </si>
   <si>
     <t>Nguyễn Hoàng Khánh Vy</t>
@@ -2064,7 +2070,7 @@
     <t>12/12/1999</t>
   </si>
   <si>
-    <t>K009CB225</t>
+    <t>K009CB226</t>
   </si>
   <si>
     <t>Võ Thị Ngọc Ý</t>
@@ -2073,7 +2079,7 @@
     <t>27/03/1997</t>
   </si>
   <si>
-    <t>K009CB226</t>
+    <t>K009CB227</t>
   </si>
   <si>
     <t>Phạm Lê Ngọc Yến</t>
@@ -2082,7 +2088,7 @@
     <t>18/10/1999</t>
   </si>
   <si>
-    <t>K009CB227</t>
+    <t>K009CB228</t>
   </si>
   <si>
     <t>Võ Nguyễn Thu Yến</t>
@@ -2091,9 +2097,9 @@
     <t>04/01/1998</t>
   </si>
   <si>
-    <t>Có 228 thí sinh đăng ký dự thi cấp chứng chỉ ứng dụng CNTT (cơ bản/nâng cao)
+    <t>Có 229 thí sinh đăng ký dự thi cấp chứng chỉ ứng dụng CNTT (cơ bản/nâng cao)
 Số lượng thí sinh đến dự thi: ......; số lượng thi sinh vắng thi:......
-Kết quả: 0 đạt; 227 không đạt</t>
+Kết quả: 0 đạt; 228 không đạt</t>
   </si>
   <si>
     <t>Vĩnh Long, ngày 12 tháng 11 năm 2018</t>
@@ -2639,10 +2645,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B239" sqref="B239"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9903,14 +9909,14 @@
         <v>587</v>
       </c>
       <c r="C200" s="3">
-        <v>371886425</v>
+        <v>341948483</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>588</v>
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="3" t="s">
-        <v>589</v>
+        <v>501</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>26</v>
@@ -9937,17 +9943,17 @@
         <v>193</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C201" s="3">
+        <v>371886425</v>
+      </c>
+      <c r="D201" s="11" t="s">
         <v>590</v>
-      </c>
-      <c r="C201" s="3">
-        <v>331853017</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>591</v>
       </c>
       <c r="E201" s="11"/>
       <c r="F201" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>26</v>
@@ -9974,20 +9980,20 @@
         <v>194</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C202" s="3">
+        <v>331853017</v>
+      </c>
+      <c r="D202" s="11" t="s">
         <v>593</v>
-      </c>
-      <c r="C202" s="3">
-        <v>331808699</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>594</v>
       </c>
       <c r="E202" s="11"/>
       <c r="F202" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>27</v>
@@ -10011,23 +10017,23 @@
         <v>195</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C203" s="3">
+        <v>331808699</v>
+      </c>
+      <c r="D203" s="11" t="s">
         <v>596</v>
-      </c>
-      <c r="C203" s="3">
-        <v>334968870</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>597</v>
       </c>
       <c r="E203" s="11"/>
       <c r="F203" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I203" s="12">
         <v>0</v>
@@ -10048,23 +10054,23 @@
         <v>196</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C204" s="3">
+        <v>334968870</v>
+      </c>
+      <c r="D204" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="C204" s="3">
-        <v>331867245</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>600</v>
       </c>
       <c r="E204" s="11"/>
       <c r="F204" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I204" s="12">
         <v>0</v>
@@ -10085,17 +10091,17 @@
         <v>197</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C205" s="3">
+        <v>331867245</v>
+      </c>
+      <c r="D205" s="11" t="s">
         <v>602</v>
-      </c>
-      <c r="C205" s="3">
-        <v>331882420</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>603</v>
       </c>
       <c r="E205" s="11"/>
       <c r="F205" s="3" t="s">
-        <v>290</v>
+        <v>603</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>26</v>
@@ -10125,20 +10131,20 @@
         <v>604</v>
       </c>
       <c r="C206" s="3">
-        <v>341972897</v>
+        <v>331882420</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>605</v>
       </c>
       <c r="E206" s="11"/>
       <c r="F206" s="3" t="s">
-        <v>606</v>
+        <v>290</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I206" s="12">
         <v>0</v>
@@ -10159,23 +10165,23 @@
         <v>199</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C207" s="3">
+        <v>341972897</v>
+      </c>
+      <c r="D207" s="11" t="s">
         <v>607</v>
-      </c>
-      <c r="C207" s="3">
-        <v>331828219</v>
-      </c>
-      <c r="D207" s="11" t="s">
-        <v>608</v>
       </c>
       <c r="E207" s="11"/>
       <c r="F207" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I207" s="12">
         <v>0</v>
@@ -10196,17 +10202,17 @@
         <v>200</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C208" s="3">
+        <v>331828219</v>
+      </c>
+      <c r="D208" s="11" t="s">
         <v>610</v>
-      </c>
-      <c r="C208" s="3">
-        <v>331821337</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>611</v>
       </c>
       <c r="E208" s="11"/>
       <c r="F208" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>43</v>
@@ -10233,20 +10239,20 @@
         <v>201</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C209" s="3">
+        <v>331821337</v>
+      </c>
+      <c r="D209" s="11" t="s">
         <v>613</v>
-      </c>
-      <c r="C209" s="3">
-        <v>331889037</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>614</v>
       </c>
       <c r="E209" s="11"/>
       <c r="F209" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>27</v>
@@ -10270,23 +10276,23 @@
         <v>202</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C210" s="3">
+        <v>331889037</v>
+      </c>
+      <c r="D210" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="C210" s="3">
-        <v>341825040</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>617</v>
       </c>
       <c r="E210" s="11"/>
       <c r="F210" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I210" s="12">
         <v>0</v>
@@ -10307,20 +10313,20 @@
         <v>203</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C211" s="3">
+        <v>341825040</v>
+      </c>
+      <c r="D211" s="11" t="s">
         <v>619</v>
-      </c>
-      <c r="C211" s="3">
-        <v>341833924</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>620</v>
       </c>
       <c r="E211" s="11"/>
       <c r="F211" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>32</v>
@@ -10344,23 +10350,23 @@
         <v>204</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C212" s="3">
+        <v>341833924</v>
+      </c>
+      <c r="D212" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="C212" s="3">
-        <v>331805026</v>
-      </c>
-      <c r="D212" s="11" t="s">
-        <v>623</v>
       </c>
       <c r="E212" s="11"/>
       <c r="F212" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I212" s="12">
         <v>0</v>
@@ -10381,23 +10387,23 @@
         <v>205</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C213" s="3">
+        <v>331805026</v>
+      </c>
+      <c r="D213" s="11" t="s">
         <v>625</v>
-      </c>
-      <c r="C213" s="3">
-        <v>341902882</v>
-      </c>
-      <c r="D213" s="11" t="s">
-        <v>626</v>
       </c>
       <c r="E213" s="11"/>
       <c r="F213" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I213" s="12">
         <v>0</v>
@@ -10418,23 +10424,23 @@
         <v>206</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C214" s="3">
+        <v>341902882</v>
+      </c>
+      <c r="D214" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="C214" s="3">
-        <v>331835220</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="E214" s="11"/>
       <c r="F214" s="3" t="s">
-        <v>428</v>
+        <v>629</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I214" s="12">
         <v>0</v>
@@ -10458,14 +10464,14 @@
         <v>630</v>
       </c>
       <c r="C215" s="3">
-        <v>331835727</v>
+        <v>331835220</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>631</v>
       </c>
       <c r="E215" s="11"/>
       <c r="F215" s="3" t="s">
-        <v>632</v>
+        <v>428</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>26</v>
@@ -10492,20 +10498,20 @@
         <v>208</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C216" s="3">
+        <v>331835727</v>
+      </c>
+      <c r="D216" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="C216" s="3">
-        <v>331773928</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="E216" s="11"/>
       <c r="F216" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H216" s="3" t="s">
         <v>27</v>
@@ -10529,20 +10535,20 @@
         <v>209</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C217" s="3">
+        <v>331773928</v>
+      </c>
+      <c r="D217" s="11" t="s">
         <v>636</v>
-      </c>
-      <c r="C217" s="3">
-        <v>331883790</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>637</v>
       </c>
       <c r="E217" s="11"/>
       <c r="F217" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>27</v>
@@ -10566,23 +10572,23 @@
         <v>210</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C218" s="3">
+        <v>331883790</v>
+      </c>
+      <c r="D218" s="11" t="s">
         <v>639</v>
-      </c>
-      <c r="C218" s="3">
-        <v>341948438</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>640</v>
       </c>
       <c r="E218" s="11"/>
       <c r="F218" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I218" s="12">
         <v>0</v>
@@ -10603,23 +10609,23 @@
         <v>211</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C219" s="3">
+        <v>341948438</v>
+      </c>
+      <c r="D219" s="11" t="s">
         <v>642</v>
-      </c>
-      <c r="C219" s="3">
-        <v>331865400</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>643</v>
       </c>
       <c r="E219" s="11"/>
       <c r="F219" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I219" s="12">
         <v>0</v>
@@ -10640,17 +10646,17 @@
         <v>212</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C220" s="3">
+        <v>331865400</v>
+      </c>
+      <c r="D220" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="C220" s="3">
-        <v>331835422</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>646</v>
       </c>
       <c r="E220" s="11"/>
       <c r="F220" s="3" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>43</v>
@@ -10680,14 +10686,14 @@
         <v>647</v>
       </c>
       <c r="C221" s="3">
-        <v>331817932</v>
+        <v>331835422</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E221" s="11"/>
       <c r="F221" s="3" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>43</v>
@@ -10714,17 +10720,17 @@
         <v>214</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C222" s="3">
+        <v>331817932</v>
+      </c>
+      <c r="D222" s="11" t="s">
         <v>650</v>
-      </c>
-      <c r="C222" s="3">
-        <v>331821616</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>651</v>
       </c>
       <c r="E222" s="11"/>
       <c r="F222" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>43</v>
@@ -10751,17 +10757,17 @@
         <v>215</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C223" s="3">
+        <v>331821616</v>
+      </c>
+      <c r="D223" s="11" t="s">
         <v>653</v>
-      </c>
-      <c r="C223" s="3">
-        <v>331774546</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>654</v>
       </c>
       <c r="E223" s="11"/>
       <c r="F223" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>43</v>
@@ -10788,20 +10794,20 @@
         <v>216</v>
       </c>
       <c r="B224" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C224" s="3">
+        <v>331774546</v>
+      </c>
+      <c r="D224" s="11" t="s">
         <v>656</v>
-      </c>
-      <c r="C224" s="3">
-        <v>331854807</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>657</v>
       </c>
       <c r="E224" s="11"/>
       <c r="F224" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H224" s="3" t="s">
         <v>27</v>
@@ -10825,23 +10831,23 @@
         <v>217</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C225" s="3">
+        <v>331854807</v>
+      </c>
+      <c r="D225" s="11" t="s">
         <v>659</v>
-      </c>
-      <c r="C225" s="3">
-        <v>341973124</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>660</v>
       </c>
       <c r="E225" s="11"/>
       <c r="F225" s="3" t="s">
-        <v>225</v>
+        <v>660</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I225" s="12">
         <v>0</v>
@@ -10865,20 +10871,20 @@
         <v>661</v>
       </c>
       <c r="C226" s="3">
-        <v>331821453</v>
+        <v>341973124</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>662</v>
       </c>
       <c r="E226" s="11"/>
       <c r="F226" s="3" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I226" s="12">
         <v>0</v>
@@ -10902,14 +10908,14 @@
         <v>663</v>
       </c>
       <c r="C227" s="3">
-        <v>331773551</v>
+        <v>331821453</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>664</v>
       </c>
       <c r="E227" s="11"/>
       <c r="F227" s="3" t="s">
-        <v>665</v>
+        <v>68</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>26</v>
@@ -10936,17 +10942,17 @@
         <v>220</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C228" s="3">
+        <v>331773551</v>
+      </c>
+      <c r="D228" s="11" t="s">
         <v>666</v>
-      </c>
-      <c r="C228" s="3">
-        <v>331805705</v>
-      </c>
-      <c r="D228" s="11" t="s">
-        <v>667</v>
       </c>
       <c r="E228" s="11"/>
       <c r="F228" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>26</v>
@@ -10973,23 +10979,23 @@
         <v>221</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C229" s="3">
+        <v>331805705</v>
+      </c>
+      <c r="D229" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="C229" s="3">
-        <v>341932303</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>670</v>
       </c>
       <c r="E229" s="11"/>
       <c r="F229" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I229" s="12">
         <v>0</v>
@@ -11010,23 +11016,23 @@
         <v>222</v>
       </c>
       <c r="B230" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C230" s="3">
+        <v>341932303</v>
+      </c>
+      <c r="D230" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="C230" s="3">
-        <v>331809027</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="E230" s="11"/>
       <c r="F230" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I230" s="12">
         <v>0</v>
@@ -11047,17 +11053,17 @@
         <v>223</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C231" s="3">
+        <v>331809027</v>
+      </c>
+      <c r="D231" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="C231" s="3">
-        <v>331806701</v>
-      </c>
-      <c r="D231" s="11" t="s">
-        <v>676</v>
       </c>
       <c r="E231" s="11"/>
       <c r="F231" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>26</v>
@@ -11084,20 +11090,20 @@
         <v>224</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C232" s="3">
+        <v>331806701</v>
+      </c>
+      <c r="D232" s="11" t="s">
         <v>678</v>
-      </c>
-      <c r="C232" s="3">
-        <v>331842484</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>679</v>
       </c>
       <c r="E232" s="11"/>
       <c r="F232" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H232" s="3" t="s">
         <v>27</v>
@@ -11121,17 +11127,17 @@
         <v>225</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C233" s="3">
+        <v>331842484</v>
+      </c>
+      <c r="D233" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="C233" s="3">
-        <v>331776598</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>682</v>
       </c>
       <c r="E233" s="11"/>
       <c r="F233" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>43</v>
@@ -11158,17 +11164,17 @@
         <v>226</v>
       </c>
       <c r="B234" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C234" s="3">
+        <v>331776598</v>
+      </c>
+      <c r="D234" s="11" t="s">
         <v>684</v>
-      </c>
-      <c r="C234" s="3">
-        <v>331817970</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>685</v>
       </c>
       <c r="E234" s="11"/>
       <c r="F234" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>43</v>
@@ -11195,17 +11201,17 @@
         <v>227</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C235" s="3">
+        <v>331817970</v>
+      </c>
+      <c r="D235" s="11" t="s">
         <v>687</v>
-      </c>
-      <c r="C235" s="3">
-        <v>331773492</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>688</v>
       </c>
       <c r="E235" s="11"/>
       <c r="F235" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>43</v>
@@ -11227,98 +11233,120 @@
       </c>
       <c r="M235" s="11"/>
     </row>
-    <row r="236" spans="1:13" customHeight="1" ht="60">
-      <c r="A236" s="14" t="s">
+    <row r="236" spans="1:13">
+      <c r="A236" s="3">
+        <v>228</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C236" s="3">
+        <v>331773492</v>
+      </c>
+      <c r="D236" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="B236" s="15"/>
-      <c r="C236" s="15"/>
-      <c r="D236" s="15"/>
-      <c r="E236" s="15"/>
-      <c r="F236" s="15"/>
-      <c r="G236" s="15"/>
-      <c r="H236" s="15"/>
-      <c r="I236" s="15"/>
-      <c r="J236" s="15"/>
-      <c r="K236" s="15"/>
-      <c r="L236" s="15"/>
-      <c r="M236" s="15"/>
-    </row>
-    <row r="237" spans="1:13" customHeight="1" ht="25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="16" t="s">
+      <c r="E236" s="11"/>
+      <c r="F236" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="G236" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I236" s="12">
+        <v>0</v>
+      </c>
+      <c r="J236" s="12">
+        <v>0</v>
+      </c>
+      <c r="K236" s="12">
+        <v>0</v>
+      </c>
+      <c r="L236" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M236" s="11"/>
+    </row>
+    <row r="237" spans="1:13" customHeight="1" ht="60">
+      <c r="A237" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="B237" s="15"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="15"/>
+      <c r="I237" s="15"/>
+      <c r="J237" s="15"/>
+      <c r="K237" s="15"/>
+      <c r="L237" s="15"/>
+      <c r="M237" s="15"/>
+    </row>
+    <row r="238" spans="1:13" customHeight="1" ht="25">
       <c r="A238" s="1"/>
-      <c r="B238" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="C238" s="17"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="17" t="s">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17" t="s">
-        <v>694</v>
-      </c>
-      <c r="I238" s="17"/>
-      <c r="J238" s="17"/>
-      <c r="K238" s="17" t="s">
-        <v>695</v>
-      </c>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1"/>
-      <c r="B239" s="18" t="s">
+      <c r="B239" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="C239" s="17"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18"/>
-      <c r="E239" s="18" t="s">
-        <v>696</v>
-      </c>
-      <c r="F239" s="18"/>
-      <c r="G239" s="18"/>
-      <c r="H239" s="18" t="s">
-        <v>696</v>
-      </c>
-      <c r="I239" s="18"/>
-      <c r="J239" s="18"/>
-      <c r="K239" s="18" t="s">
-        <v>696</v>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="17" t="s">
+        <v>697</v>
       </c>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
+      <c r="B240" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="F240" s="18"/>
+      <c r="G240" s="18"/>
+      <c r="H240" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="I240" s="18"/>
+      <c r="J240" s="18"/>
+      <c r="K240" s="18" t="s">
+        <v>698</v>
+      </c>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
     </row>
@@ -11336,6 +11364,21 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -11586,16 +11629,17 @@
     <mergeCell ref="D233:E233"/>
     <mergeCell ref="D234:E234"/>
     <mergeCell ref="D235:E235"/>
-    <mergeCell ref="A236:M236"/>
-    <mergeCell ref="H237:M237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="K238:M238"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="A237:M237"/>
+    <mergeCell ref="H238:M238"/>
     <mergeCell ref="B239:C239"/>
     <mergeCell ref="E239:F239"/>
     <mergeCell ref="H239:I239"/>
     <mergeCell ref="K239:M239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="K240:M240"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
